--- a/Team-Data/2013-14/3-13-2013-14.xlsx
+++ b/Team-Data/2013-14/3-13-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,37 +733,37 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" t="n">
         <v>35</v>
       </c>
       <c r="G2" t="n">
-        <v>0.444</v>
+        <v>0.435</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J2" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K2" t="n">
         <v>0.459</v>
       </c>
       <c r="L2" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="M2" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.378</v>
+        <v>0.376</v>
       </c>
       <c r="O2" t="n">
         <v>16.8</v>
@@ -705,13 +772,13 @@
         <v>21.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R2" t="n">
         <v>8.9</v>
       </c>
       <c r="S2" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T2" t="n">
         <v>40</v>
@@ -723,7 +790,7 @@
         <v>15.3</v>
       </c>
       <c r="W2" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
         <v>4.2</v>
@@ -741,19 +808,19 @@
         <v>101.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>18</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH2" t="n">
         <v>10</v>
@@ -762,7 +829,7 @@
         <v>18</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
         <v>9</v>
@@ -774,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -798,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
         <v>24</v>
       </c>
       <c r="AY2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ2" t="n">
         <v>4</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -932,13 +999,13 @@
         <v>25</v>
       </c>
       <c r="AF3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
         <v>25</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1187,7 @@
         <v>14</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -1394,88 +1461,88 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" t="n">
         <v>29</v>
       </c>
       <c r="G6" t="n">
-        <v>0.554</v>
+        <v>0.547</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
       </c>
       <c r="I6" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="J6" t="n">
-        <v>80.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.432</v>
+        <v>0.431</v>
       </c>
       <c r="L6" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.347</v>
+        <v>0.342</v>
       </c>
       <c r="O6" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.774</v>
+        <v>0.773</v>
       </c>
       <c r="R6" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S6" t="n">
         <v>33</v>
       </c>
       <c r="T6" t="n">
-        <v>44.8</v>
+        <v>44.9</v>
       </c>
       <c r="U6" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="V6" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="W6" t="n">
         <v>7.2</v>
       </c>
       <c r="X6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y6" t="n">
         <v>6.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
         <v>21.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.40000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>13</v>
@@ -1493,10 +1560,10 @@
         <v>27</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="n">
         <v>27</v>
@@ -1547,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="BC6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1733,7 @@
         <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI7" t="n">
         <v>23</v>
@@ -1684,7 +1751,7 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO7" t="n">
         <v>16</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1939,7 @@
         <v>18</v>
       </c>
       <c r="AP8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
@@ -2027,10 +2094,10 @@
         <v>19</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
         <v>12</v>
@@ -2048,7 +2115,7 @@
         <v>9</v>
       </c>
       <c r="AN9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
@@ -2066,7 +2133,7 @@
         <v>7</v>
       </c>
       <c r="AT9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU9" t="n">
         <v>12</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2327,7 @@
         <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY10" t="n">
         <v>17</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -2406,13 +2473,13 @@
         <v>10</v>
       </c>
       <c r="AL11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM11" t="n">
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="n">
         <v>23</v>
@@ -2424,13 +2491,13 @@
         <v>23</v>
       </c>
       <c r="AR11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT11" t="n">
         <v>3</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>4</v>
       </c>
       <c r="AU11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -2486,70 +2553,70 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" t="n">
         <v>44</v>
       </c>
       <c r="F12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>0.677</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.6</v>
+        <v>37.8</v>
       </c>
       <c r="J12" t="n">
         <v>79.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.473</v>
+        <v>0.475</v>
       </c>
       <c r="L12" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M12" t="n">
         <v>25.9</v>
       </c>
       <c r="N12" t="n">
-        <v>0.351</v>
+        <v>0.354</v>
       </c>
       <c r="O12" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="P12" t="n">
         <v>31.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.698</v>
+        <v>0.697</v>
       </c>
       <c r="R12" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="T12" t="n">
-        <v>45.3</v>
+        <v>45.2</v>
       </c>
       <c r="U12" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V12" t="n">
         <v>16.4</v>
       </c>
       <c r="W12" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X12" t="n">
         <v>5.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
         <v>20.2</v>
@@ -2558,25 +2625,25 @@
         <v>24.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.2</v>
+        <v>106.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
       </c>
       <c r="AF12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG12" t="n">
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
         <v>17</v>
@@ -2585,16 +2652,16 @@
         <v>28</v>
       </c>
       <c r="AK12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2606,13 +2673,13 @@
         <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS12" t="n">
         <v>4</v>
       </c>
       <c r="AT12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU12" t="n">
         <v>22</v>
@@ -2621,13 +2688,13 @@
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX12" t="n">
         <v>6</v>
       </c>
       <c r="AY12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
         <v>12</v>
@@ -2636,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="BB12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -2746,16 +2813,16 @@
         <v>6.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF13" t="n">
         <v>2</v>
       </c>
       <c r="AG13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH13" t="n">
         <v>19</v>
@@ -2776,7 +2843,7 @@
         <v>24</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
@@ -2800,7 +2867,7 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2985,7 +3052,7 @@
         <v>8</v>
       </c>
       <c r="AW14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX14" t="n">
         <v>16</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" t="n">
         <v>22</v>
       </c>
       <c r="F15" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" t="n">
-        <v>0.338</v>
+        <v>0.344</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3050,7 +3117,7 @@
         <v>37.8</v>
       </c>
       <c r="J15" t="n">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="K15" t="n">
         <v>0.449</v>
@@ -3062,7 +3129,7 @@
         <v>24.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.385</v>
+        <v>0.383</v>
       </c>
       <c r="O15" t="n">
         <v>16.9</v>
@@ -3071,16 +3138,16 @@
         <v>22.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.749</v>
+        <v>0.752</v>
       </c>
       <c r="R15" t="n">
         <v>9.1</v>
       </c>
       <c r="S15" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T15" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U15" t="n">
         <v>23.8</v>
@@ -3095,28 +3162,28 @@
         <v>5.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z15" t="n">
         <v>20.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB15" t="n">
         <v>102</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.2</v>
+        <v>-5.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
       </c>
       <c r="AF15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG15" t="n">
         <v>25</v>
@@ -3131,7 +3198,7 @@
         <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
         <v>2</v>
@@ -3149,7 +3216,7 @@
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR15" t="n">
         <v>25</v>
@@ -3173,19 +3240,19 @@
         <v>3</v>
       </c>
       <c r="AY15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ15" t="n">
         <v>10</v>
       </c>
       <c r="BA15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BB15" t="n">
         <v>12</v>
       </c>
       <c r="BC15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>1.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>10</v>
@@ -3310,7 +3377,7 @@
         <v>16</v>
       </c>
       <c r="AJ16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
@@ -3331,7 +3398,7 @@
         <v>29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR16" t="n">
         <v>14</v>
@@ -3343,7 +3410,7 @@
         <v>19</v>
       </c>
       <c r="AU16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV16" t="n">
         <v>4</v>
@@ -3367,7 +3434,7 @@
         <v>25</v>
       </c>
       <c r="BC16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2</v>
+        <v>0.203</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
@@ -3596,49 +3663,49 @@
         <v>35.6</v>
       </c>
       <c r="J18" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K18" t="n">
         <v>0.431</v>
       </c>
       <c r="L18" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M18" t="n">
         <v>20.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.354</v>
+        <v>0.356</v>
       </c>
       <c r="O18" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="P18" t="n">
         <v>21.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R18" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S18" t="n">
         <v>29.6</v>
       </c>
       <c r="T18" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U18" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V18" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W18" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X18" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y18" t="n">
         <v>5.2</v>
@@ -3650,13 +3717,13 @@
         <v>20.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="AC18" t="n">
         <v>-8</v>
       </c>
       <c r="AD18" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,7 +3735,7 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI18" t="n">
         <v>28</v>
@@ -3677,7 +3744,7 @@
         <v>16</v>
       </c>
       <c r="AK18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL18" t="n">
         <v>18</v>
@@ -3686,13 +3753,13 @@
         <v>19</v>
       </c>
       <c r="AN18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO18" t="n">
         <v>25</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ18" t="n">
         <v>16</v>
@@ -3716,7 +3783,7 @@
         <v>28</v>
       </c>
       <c r="AX18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY18" t="n">
         <v>19</v>
@@ -3725,7 +3792,7 @@
         <v>18</v>
       </c>
       <c r="BA18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3953,7 @@
         <v>12</v>
       </c>
       <c r="AT19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU19" t="n">
         <v>6</v>
@@ -3910,7 +3977,7 @@
         <v>3</v>
       </c>
       <c r="BB19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC19" t="n">
         <v>9</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4044,7 +4111,7 @@
         <v>11</v>
       </c>
       <c r="AL20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM20" t="n">
         <v>29</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR21" t="n">
         <v>19</v>
@@ -4271,7 +4338,7 @@
         <v>26</v>
       </c>
       <c r="BA21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB21" t="n">
         <v>20</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -4306,58 +4373,58 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" t="n">
         <v>17</v>
       </c>
       <c r="G22" t="n">
-        <v>0.738</v>
+        <v>0.734</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="J22" t="n">
-        <v>82.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="K22" t="n">
         <v>0.475</v>
       </c>
       <c r="L22" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M22" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.361</v>
+        <v>0.359</v>
       </c>
       <c r="O22" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="P22" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.806</v>
+        <v>0.803</v>
       </c>
       <c r="R22" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S22" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="T22" t="n">
-        <v>45.5</v>
+        <v>45.2</v>
       </c>
       <c r="U22" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V22" t="n">
         <v>15.8</v>
@@ -4366,28 +4433,28 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X22" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Y22" t="n">
         <v>3.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA22" t="n">
         <v>20.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.1</v>
+        <v>105.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
         <v>2</v>
@@ -4396,16 +4463,16 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI22" t="n">
         <v>4</v>
       </c>
       <c r="AJ22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL22" t="n">
         <v>16</v>
@@ -4414,13 +4481,13 @@
         <v>16</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
@@ -4429,13 +4496,13 @@
         <v>17</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AU22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV22" t="n">
         <v>28</v>
@@ -4450,7 +4517,7 @@
         <v>3</v>
       </c>
       <c r="AZ22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA22" t="n">
         <v>18</v>
@@ -4459,7 +4526,7 @@
         <v>5</v>
       </c>
       <c r="BC22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-11.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4760,7 +4827,7 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI24" t="n">
         <v>13</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
@@ -4966,7 +5033,7 @@
         <v>9</v>
       </c>
       <c r="AP25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ25" t="n">
         <v>17</v>
@@ -4984,7 +5051,7 @@
         <v>29</v>
       </c>
       <c r="AV25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW25" t="n">
         <v>9</v>
@@ -4996,7 +5063,7 @@
         <v>9</v>
       </c>
       <c r="AZ25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -5124,7 +5191,7 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
         <v>3</v>
@@ -5133,7 +5200,7 @@
         <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
         <v>4</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -5306,13 +5373,13 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK27" t="n">
         <v>18</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>6.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5533,7 +5600,7 @@
         <v>15</v>
       </c>
       <c r="AW28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX28" t="n">
         <v>12</v>
@@ -5551,7 +5618,7 @@
         <v>7</v>
       </c>
       <c r="BC28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -5846,13 +5913,13 @@
         <v>25</v>
       </c>
       <c r="AF30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI30" t="n">
         <v>26</v>
@@ -5870,7 +5937,7 @@
         <v>23</v>
       </c>
       <c r="AN30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO30" t="n">
         <v>22</v>
@@ -5909,13 +5976,13 @@
         <v>17</v>
       </c>
       <c r="BA30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB30" t="n">
         <v>28</v>
       </c>
       <c r="BC30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6091,7 +6158,7 @@
         <v>16</v>
       </c>
       <c r="BA31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB31" t="n">
         <v>16</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-13-2013-14</t>
+          <t>2014-03-13</t>
         </is>
       </c>
     </row>
